--- a/导表工具/Excels/资源表.xlsx
+++ b/导表工具/Excels/资源表.xlsx
@@ -1,137 +1,88 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10611"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuanguo\Desktop\HEDAO\导表工具\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xuanguo/Game/HEDAO/导表工具/Excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC57CB82-697A-4CD8-835B-BDCD3B22147D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C84926A9-0E4B-D14C-BB42-00D4FF340186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="特效资源表" sheetId="3" r:id="rId1"/>
     <sheet name="网格特效表" sheetId="4" r:id="rId2"/>
-    <sheet name="界面资源表" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+  <si>
+    <t>选择特效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brith</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>##var#column</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>##type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>##</t>
-  </si>
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>AssetName</t>
-  </si>
-  <si>
-    <t>##type</t>
-  </si>
-  <si>
-    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Select</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>string</t>
-  </si>
-  <si>
-    <t>资源名</t>
-  </si>
-  <si>
-    <t>UIGroup</t>
-  </si>
-  <si>
-    <t>界面编号</t>
-  </si>
-  <si>
-    <t>界面名</t>
-  </si>
-  <si>
-    <t>界面组</t>
-  </si>
-  <si>
-    <t>选择特效</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Brith</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>##var#column</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>##type</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>##</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Select</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Attack</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>攻击特效</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>select</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>attack</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>出生点瓦片</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>brith</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -152,18 +103,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -180,35 +125,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -492,54 +413,54 @@
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.08203125" customWidth="1"/>
+    <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="12.33203125" customWidth="1"/>
-    <col min="3" max="4" width="11.4140625" customWidth="1"/>
+    <col min="3" max="4" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>21</v>
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>22</v>
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -550,166 +471,42 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="10.75" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>13</v>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>24</v>
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="14.75" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="26.33203125" customWidth="1"/>
-    <col min="5" max="5" width="15.58203125" customWidth="1"/>
-    <col min="6" max="6" width="15.75" customWidth="1"/>
-    <col min="10" max="10" width="22.9140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="7"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="8"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="7"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="7"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="7"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/导表工具/Excels/资源表.xlsx
+++ b/导表工具/Excels/资源表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10713"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xuanguo/Game/HEDAO/导表工具/Excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C84926A9-0E4B-D14C-BB42-00D4FF340186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE14ACBB-B422-204C-89A7-4F29E3B9193D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="特效资源表" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
   <si>
     <t>选择特效</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,14 +56,6 @@
   </si>
   <si>
     <t>攻击特效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attack</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -409,8 +401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
@@ -432,7 +424,7 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
@@ -442,11 +434,11 @@
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
@@ -456,7 +448,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -470,7 +462,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C551F51-8CE4-4B0B-9D61-A2FB0666297E}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
@@ -498,10 +490,10 @@
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/导表工具/Excels/资源表.xlsx
+++ b/导表工具/Excels/资源表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xuanguo/Game/HEDAO/导表工具/Excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE14ACBB-B422-204C-89A7-4F29E3B9193D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C23286-3DF9-AF45-B555-6BEBEAB97E79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>选择特效</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,6 +64,26 @@
   </si>
   <si>
     <t>brith</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Streak</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>条纹特效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>streak</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attack</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -402,7 +422,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
@@ -434,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -448,7 +468,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -460,10 +480,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C551F51-8CE4-4B0B-9D61-A2FB0666297E}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -496,6 +516,20 @@
         <v>10</v>
       </c>
     </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
